--- a/natmiOut/OldD4/LR-pairs_lrc2p/Efna4-Epha1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Efna4-Epha1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.742511247858204</v>
+        <v>0.828516</v>
       </c>
       <c r="H2">
-        <v>0.742511247858204</v>
+        <v>2.485548</v>
       </c>
       <c r="I2">
-        <v>0.4423832483197635</v>
+        <v>0.4625620436231038</v>
       </c>
       <c r="J2">
-        <v>0.4423832483197635</v>
+        <v>0.4821955800271095</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.84030718500538</v>
+        <v>4.472365</v>
       </c>
       <c r="N2">
-        <v>3.84030718500538</v>
+        <v>13.417095</v>
       </c>
       <c r="O2">
-        <v>0.1816028790334963</v>
+        <v>0.1840876942178652</v>
       </c>
       <c r="P2">
-        <v>0.1816028790334963</v>
+        <v>0.2075728609309428</v>
       </c>
       <c r="Q2">
-        <v>2.851471280097171</v>
+        <v>3.70542596034</v>
       </c>
       <c r="R2">
-        <v>2.851471280097171</v>
+        <v>33.34883364306</v>
       </c>
       <c r="S2">
-        <v>0.08033807153105917</v>
+        <v>0.08515198004328077</v>
       </c>
       <c r="T2">
-        <v>0.08033807153105917</v>
+        <v>0.1000907160744825</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.742511247858204</v>
+        <v>0.828516</v>
       </c>
       <c r="H3">
-        <v>0.742511247858204</v>
+        <v>2.485548</v>
       </c>
       <c r="I3">
-        <v>0.4423832483197635</v>
+        <v>0.4625620436231038</v>
       </c>
       <c r="J3">
-        <v>0.4423832483197635</v>
+        <v>0.4821955800271095</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.40129874661521</v>
+        <v>3.966196333333333</v>
       </c>
       <c r="N3">
-        <v>3.40129874661521</v>
+        <v>11.898589</v>
       </c>
       <c r="O3">
-        <v>0.1608427698831283</v>
+        <v>0.163253208943967</v>
       </c>
       <c r="P3">
-        <v>0.1608427698831283</v>
+        <v>0.1840803959256042</v>
       </c>
       <c r="Q3">
-        <v>2.525502576687805</v>
+        <v>3.286057121308</v>
       </c>
       <c r="R3">
-        <v>2.525502576687805</v>
+        <v>29.574514091772</v>
       </c>
       <c r="S3">
-        <v>0.07115414700964652</v>
+        <v>0.07551473795715094</v>
       </c>
       <c r="T3">
-        <v>0.07115414700964652</v>
+        <v>0.08876275328496672</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.742511247858204</v>
+        <v>0.828516</v>
       </c>
       <c r="H4">
-        <v>0.742511247858204</v>
+        <v>2.485548</v>
       </c>
       <c r="I4">
-        <v>0.4423832483197635</v>
+        <v>0.4625620436231038</v>
       </c>
       <c r="J4">
-        <v>0.4423832483197635</v>
+        <v>0.4821955800271095</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.62588170278762</v>
+        <v>4.115150666666667</v>
       </c>
       <c r="N4">
-        <v>2.62588170278762</v>
+        <v>12.345452</v>
       </c>
       <c r="O4">
-        <v>0.1241743574809741</v>
+        <v>0.1693843408545093</v>
       </c>
       <c r="P4">
-        <v>0.1241743574809741</v>
+        <v>0.1909937129554221</v>
       </c>
       <c r="Q4">
-        <v>1.949746699864861</v>
+        <v>3.409468169744</v>
       </c>
       <c r="R4">
-        <v>1.949746699864861</v>
+        <v>30.685213527696</v>
       </c>
       <c r="S4">
-        <v>0.05493265562045285</v>
+        <v>0.07835076686341423</v>
       </c>
       <c r="T4">
-        <v>0.05493265562045285</v>
+        <v>0.09209632420007104</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.742511247858204</v>
+        <v>0.828516</v>
       </c>
       <c r="H5">
-        <v>0.742511247858204</v>
+        <v>2.485548</v>
       </c>
       <c r="I5">
-        <v>0.4423832483197635</v>
+        <v>0.4625620436231038</v>
       </c>
       <c r="J5">
-        <v>0.4423832483197635</v>
+        <v>0.4821955800271095</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.08207520992604</v>
+        <v>3.494784666666666</v>
       </c>
       <c r="N5">
-        <v>3.08207520992604</v>
+        <v>10.484354</v>
       </c>
       <c r="O5">
-        <v>0.1457471250492041</v>
+        <v>0.1438493618196675</v>
       </c>
       <c r="P5">
-        <v>0.1457471250492041</v>
+        <v>0.1622010841238564</v>
       </c>
       <c r="Q5">
-        <v>2.28847551011502</v>
+        <v>2.895485012888</v>
       </c>
       <c r="R5">
-        <v>2.28847551011502</v>
+        <v>26.059365115992</v>
       </c>
       <c r="S5">
-        <v>0.06447608661253371</v>
+        <v>0.0665392547771847</v>
       </c>
       <c r="T5">
-        <v>0.06447608661253371</v>
+        <v>0.07821264584012894</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.742511247858204</v>
+        <v>0.828516</v>
       </c>
       <c r="H6">
-        <v>0.742511247858204</v>
+        <v>2.485548</v>
       </c>
       <c r="I6">
-        <v>0.4423832483197635</v>
+        <v>0.4625620436231038</v>
       </c>
       <c r="J6">
-        <v>0.4423832483197635</v>
+        <v>0.4821955800271095</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.197167898282681</v>
+        <v>8.246256000000001</v>
       </c>
       <c r="N6">
-        <v>8.197167898282681</v>
+        <v>16.492512</v>
       </c>
       <c r="O6">
-        <v>0.3876328685531971</v>
+        <v>0.3394253941639908</v>
       </c>
       <c r="P6">
-        <v>0.3876328685531971</v>
+        <v>0.2551519460641745</v>
       </c>
       <c r="Q6">
-        <v>6.086489365057084</v>
+        <v>6.832155036096001</v>
       </c>
       <c r="R6">
-        <v>6.086489365057084</v>
+        <v>40.99293021657601</v>
       </c>
       <c r="S6">
-        <v>0.1714822875460712</v>
+        <v>0.1570053039820731</v>
       </c>
       <c r="T6">
-        <v>0.1714822875460712</v>
+        <v>0.1230331406274604</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7177448866952451</v>
+        <v>0.7438396666666667</v>
       </c>
       <c r="H7">
-        <v>0.7177448866952451</v>
+        <v>2.231519</v>
       </c>
       <c r="I7">
-        <v>0.4276276155506522</v>
+        <v>0.4152870872032183</v>
       </c>
       <c r="J7">
-        <v>0.4276276155506522</v>
+        <v>0.4329140288365043</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.84030718500538</v>
+        <v>4.472365</v>
       </c>
       <c r="N7">
-        <v>3.84030718500538</v>
+        <v>13.417095</v>
       </c>
       <c r="O7">
-        <v>0.1816028790334963</v>
+        <v>0.1840876942178652</v>
       </c>
       <c r="P7">
-        <v>0.1816028790334963</v>
+        <v>0.2075728609309428</v>
       </c>
       <c r="Q7">
-        <v>2.756360845376622</v>
+        <v>3.326722490811667</v>
       </c>
       <c r="R7">
-        <v>2.756360845376622</v>
+        <v>29.940502417305</v>
       </c>
       <c r="S7">
-        <v>0.07765840613822755</v>
+        <v>0.07644924232169399</v>
       </c>
       <c r="T7">
-        <v>0.07765840613822755</v>
+        <v>0.08986120350273384</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7177448866952451</v>
+        <v>0.7438396666666667</v>
       </c>
       <c r="H8">
-        <v>0.7177448866952451</v>
+        <v>2.231519</v>
       </c>
       <c r="I8">
-        <v>0.4276276155506522</v>
+        <v>0.4152870872032183</v>
       </c>
       <c r="J8">
-        <v>0.4276276155506522</v>
+        <v>0.4329140288365043</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.40129874661521</v>
+        <v>3.966196333333333</v>
       </c>
       <c r="N8">
-        <v>3.40129874661521</v>
+        <v>11.898589</v>
       </c>
       <c r="O8">
-        <v>0.1608427698831283</v>
+        <v>0.163253208943967</v>
       </c>
       <c r="P8">
-        <v>0.1608427698831283</v>
+        <v>0.1840803959256042</v>
       </c>
       <c r="Q8">
-        <v>2.441264783506013</v>
+        <v>2.950214158521222</v>
       </c>
       <c r="R8">
-        <v>2.441264783506013</v>
+        <v>26.551927426691</v>
       </c>
       <c r="S8">
-        <v>0.06878081016368441</v>
+        <v>0.06779694961891844</v>
       </c>
       <c r="T8">
-        <v>0.06878081016368441</v>
+        <v>0.07969098582997215</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7177448866952451</v>
+        <v>0.7438396666666667</v>
       </c>
       <c r="H9">
-        <v>0.7177448866952451</v>
+        <v>2.231519</v>
       </c>
       <c r="I9">
-        <v>0.4276276155506522</v>
+        <v>0.4152870872032183</v>
       </c>
       <c r="J9">
-        <v>0.4276276155506522</v>
+        <v>0.4329140288365043</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.62588170278762</v>
+        <v>4.115150666666667</v>
       </c>
       <c r="N9">
-        <v>2.62588170278762</v>
+        <v>12.345452</v>
       </c>
       <c r="O9">
-        <v>0.1241743574809741</v>
+        <v>0.1693843408545093</v>
       </c>
       <c r="P9">
-        <v>0.1241743574809741</v>
+        <v>0.1909937129554221</v>
       </c>
       <c r="Q9">
-        <v>1.884713165242417</v>
+        <v>3.061012300176444</v>
       </c>
       <c r="R9">
-        <v>1.884713165242417</v>
+        <v>27.549110701588</v>
       </c>
       <c r="S9">
-        <v>0.05310038440212325</v>
+        <v>0.07034312953130628</v>
       </c>
       <c r="T9">
-        <v>0.05310038440212325</v>
+        <v>0.08268385775797463</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7177448866952451</v>
+        <v>0.7438396666666667</v>
       </c>
       <c r="H10">
-        <v>0.7177448866952451</v>
+        <v>2.231519</v>
       </c>
       <c r="I10">
-        <v>0.4276276155506522</v>
+        <v>0.4152870872032183</v>
       </c>
       <c r="J10">
-        <v>0.4276276155506522</v>
+        <v>0.4329140288365043</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.08207520992604</v>
+        <v>3.494784666666666</v>
       </c>
       <c r="N10">
-        <v>3.08207520992604</v>
+        <v>10.484354</v>
       </c>
       <c r="O10">
-        <v>0.1457471250492041</v>
+        <v>0.1438493618196675</v>
       </c>
       <c r="P10">
-        <v>0.1457471250492041</v>
+        <v>0.1622010841238564</v>
       </c>
       <c r="Q10">
-        <v>2.212143722334589</v>
+        <v>2.599559461525111</v>
       </c>
       <c r="R10">
-        <v>2.212143722334589</v>
+        <v>23.396035153726</v>
       </c>
       <c r="S10">
-        <v>0.0623254955581539</v>
+        <v>0.05973878246613157</v>
       </c>
       <c r="T10">
-        <v>0.0623254955581539</v>
+        <v>0.07021912480970743</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7177448866952451</v>
+        <v>0.7438396666666667</v>
       </c>
       <c r="H11">
-        <v>0.7177448866952451</v>
+        <v>2.231519</v>
       </c>
       <c r="I11">
-        <v>0.4276276155506522</v>
+        <v>0.4152870872032183</v>
       </c>
       <c r="J11">
-        <v>0.4276276155506522</v>
+        <v>0.4329140288365043</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.197167898282681</v>
+        <v>8.246256000000001</v>
       </c>
       <c r="N11">
-        <v>8.197167898282681</v>
+        <v>16.492512</v>
       </c>
       <c r="O11">
-        <v>0.3876328685531971</v>
+        <v>0.3394253941639908</v>
       </c>
       <c r="P11">
-        <v>0.3876328685531971</v>
+        <v>0.2551519460641745</v>
       </c>
       <c r="Q11">
-        <v>5.883475344374802</v>
+        <v>6.133892314288</v>
       </c>
       <c r="R11">
-        <v>5.883475344374802</v>
+        <v>36.803353885728</v>
       </c>
       <c r="S11">
-        <v>0.1657625192884631</v>
+        <v>0.140958983265168</v>
       </c>
       <c r="T11">
-        <v>0.1657625192884631</v>
+        <v>0.1104588569361162</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.218178233561462</v>
+        <v>0.21879</v>
       </c>
       <c r="H12">
-        <v>0.218178233561462</v>
+        <v>0.43758</v>
       </c>
       <c r="I12">
-        <v>0.1299891361295843</v>
+        <v>0.1221508691736778</v>
       </c>
       <c r="J12">
-        <v>0.1299891361295843</v>
+        <v>0.08489039113638626</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.84030718500538</v>
+        <v>4.472365</v>
       </c>
       <c r="N12">
-        <v>3.84030718500538</v>
+        <v>13.417095</v>
       </c>
       <c r="O12">
-        <v>0.1816028790334963</v>
+        <v>0.1840876942178652</v>
       </c>
       <c r="P12">
-        <v>0.1816028790334963</v>
+        <v>0.2075728609309428</v>
       </c>
       <c r="Q12">
-        <v>0.8378714379578645</v>
+        <v>0.97850873835</v>
       </c>
       <c r="R12">
-        <v>0.8378714379578645</v>
+        <v>5.8710524301</v>
       </c>
       <c r="S12">
-        <v>0.02360640136420959</v>
+        <v>0.02248647185289047</v>
       </c>
       <c r="T12">
-        <v>0.02360640136420959</v>
+        <v>0.01762094135372644</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.218178233561462</v>
+        <v>0.21879</v>
       </c>
       <c r="H13">
-        <v>0.218178233561462</v>
+        <v>0.43758</v>
       </c>
       <c r="I13">
-        <v>0.1299891361295843</v>
+        <v>0.1221508691736778</v>
       </c>
       <c r="J13">
-        <v>0.1299891361295843</v>
+        <v>0.08489039113638626</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.40129874661521</v>
+        <v>3.966196333333333</v>
       </c>
       <c r="N13">
-        <v>3.40129874661521</v>
+        <v>11.898589</v>
       </c>
       <c r="O13">
-        <v>0.1608427698831283</v>
+        <v>0.163253208943967</v>
       </c>
       <c r="P13">
-        <v>0.1608427698831283</v>
+        <v>0.1840803959256042</v>
       </c>
       <c r="Q13">
-        <v>0.7420893523513211</v>
+        <v>0.8677640957699999</v>
       </c>
       <c r="R13">
-        <v>0.7420893523513211</v>
+        <v>5.206584574619999</v>
       </c>
       <c r="S13">
-        <v>0.02090781270979737</v>
+        <v>0.01994152136789761</v>
       </c>
       <c r="T13">
-        <v>0.02090781270979737</v>
+        <v>0.01562665681066539</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.218178233561462</v>
+        <v>0.21879</v>
       </c>
       <c r="H14">
-        <v>0.218178233561462</v>
+        <v>0.43758</v>
       </c>
       <c r="I14">
-        <v>0.1299891361295843</v>
+        <v>0.1221508691736778</v>
       </c>
       <c r="J14">
-        <v>0.1299891361295843</v>
+        <v>0.08489039113638626</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.62588170278762</v>
+        <v>4.115150666666667</v>
       </c>
       <c r="N14">
-        <v>2.62588170278762</v>
+        <v>12.345452</v>
       </c>
       <c r="O14">
-        <v>0.1241743574809741</v>
+        <v>0.1693843408545093</v>
       </c>
       <c r="P14">
-        <v>0.1241743574809741</v>
+        <v>0.1909937129554221</v>
       </c>
       <c r="Q14">
-        <v>0.5729102314555669</v>
+        <v>0.9003538143599999</v>
       </c>
       <c r="R14">
-        <v>0.5729102314555669</v>
+        <v>5.40212288616</v>
       </c>
       <c r="S14">
-        <v>0.01614131745839801</v>
+        <v>0.02069044445978883</v>
       </c>
       <c r="T14">
-        <v>0.01614131745839801</v>
+        <v>0.01621353099737647</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.218178233561462</v>
+        <v>0.21879</v>
       </c>
       <c r="H15">
-        <v>0.218178233561462</v>
+        <v>0.43758</v>
       </c>
       <c r="I15">
-        <v>0.1299891361295843</v>
+        <v>0.1221508691736778</v>
       </c>
       <c r="J15">
-        <v>0.1299891361295843</v>
+        <v>0.08489039113638626</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.08207520992604</v>
+        <v>3.494784666666666</v>
       </c>
       <c r="N15">
-        <v>3.08207520992604</v>
+        <v>10.484354</v>
       </c>
       <c r="O15">
-        <v>0.1457471250492041</v>
+        <v>0.1438493618196675</v>
       </c>
       <c r="P15">
-        <v>0.1457471250492041</v>
+        <v>0.1622010841238564</v>
       </c>
       <c r="Q15">
-        <v>0.6724417250052355</v>
+        <v>0.7646239372199999</v>
       </c>
       <c r="R15">
-        <v>0.6724417250052355</v>
+        <v>4.58774362332</v>
       </c>
       <c r="S15">
-        <v>0.01894554287851655</v>
+        <v>0.01757132457635126</v>
       </c>
       <c r="T15">
-        <v>0.01894554287851655</v>
+        <v>0.01376931347402006</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.218178233561462</v>
+        <v>0.21879</v>
       </c>
       <c r="H16">
-        <v>0.218178233561462</v>
+        <v>0.43758</v>
       </c>
       <c r="I16">
-        <v>0.1299891361295843</v>
+        <v>0.1221508691736778</v>
       </c>
       <c r="J16">
-        <v>0.1299891361295843</v>
+        <v>0.08489039113638626</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.197167898282681</v>
+        <v>8.246256000000001</v>
       </c>
       <c r="N16">
-        <v>8.197167898282681</v>
+        <v>16.492512</v>
       </c>
       <c r="O16">
-        <v>0.3876328685531971</v>
+        <v>0.3394253941639908</v>
       </c>
       <c r="P16">
-        <v>0.3876328685531971</v>
+        <v>0.2551519460641745</v>
       </c>
       <c r="Q16">
-        <v>1.788443612254037</v>
+        <v>1.80419835024</v>
       </c>
       <c r="R16">
-        <v>1.788443612254037</v>
+        <v>7.21679340096</v>
       </c>
       <c r="S16">
-        <v>0.0503880617186628</v>
+        <v>0.04146110691674968</v>
       </c>
       <c r="T16">
-        <v>0.0503880617186628</v>
+        <v>0.0216599485005979</v>
       </c>
     </row>
   </sheetData>
